--- a/atestados.xlsx
+++ b/atestados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsenacbr-my.sharepoint.com/personal/lucas_fbarros_sp_senac_br/Documents/Área de Trabalho/main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsenacbr-my.sharepoint.com/personal/lucas_fbarros_sp_senac_br/Documents/Documentos/autoAtestado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="11_AD4D361C20488DEA4E38A0581C9F55E45BDEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67B209EE-A294-4479-B893-6BFAEEFCD0E4}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_AD4D361C20488DEA4E38A0581C9F55E45BDEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B656CED6-7219-48F5-B74B-DBC3F3F96734}"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="795" windowWidth="14070" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2685" windowWidth="14070" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E372"/>
+  <dimension ref="A1:E371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,18 +426,63 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1142932857</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45889</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45895</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1142918356</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45889</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45891</v>
+      </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1143134883</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45894</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45894</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1142905667</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45894</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45894</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1142908399</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45895</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45895</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1531,9 +1576,6 @@
     </row>
     <row r="371" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E371" s="3"/>
-    </row>
-    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E372" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/atestados.xlsx
+++ b/atestados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsenacbr-my.sharepoint.com/personal/lucas_fbarros_sp_senac_br/Documents/Documentos/autoAtestado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_AD4D361C20488DEA4E38A0581C9F55E45BDEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B656CED6-7219-48F5-B74B-DBC3F3F96734}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_AD4D361C20488DEA4E38A0581C9F55E45BDEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DFDFD22-E0C0-442A-BB9E-05CBD935326C}"/>
   <bookViews>
     <workbookView xWindow="6300" yWindow="2685" windowWidth="14070" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
   <dimension ref="A1:E371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
+      <selection activeCell="B2" sqref="B2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,75 +414,21 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>1142886108</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45888</v>
-      </c>
-      <c r="D2" s="3">
-        <v>45888</v>
-      </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1142932857</v>
-      </c>
-      <c r="C3" s="3">
-        <v>45889</v>
-      </c>
-      <c r="D3" s="3">
-        <v>45895</v>
-      </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1142918356</v>
-      </c>
-      <c r="C4" s="3">
-        <v>45889</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45891</v>
-      </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1143134883</v>
-      </c>
-      <c r="C5" s="3">
-        <v>45894</v>
-      </c>
-      <c r="D5" s="3">
-        <v>45894</v>
-      </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1142905667</v>
-      </c>
-      <c r="C6" s="3">
-        <v>45894</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45894</v>
-      </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>1142908399</v>
-      </c>
-      <c r="C7" s="3">
-        <v>45895</v>
-      </c>
-      <c r="D7" s="3">
-        <v>45895</v>
-      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">

--- a/atestados.xlsx
+++ b/atestados.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsenacbr-my.sharepoint.com/personal/lucas_fbarros_sp_senac_br/Documents/Documentos/autoAtestado/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsenacbr-my.sharepoint.com/personal/lucas_fbarros_sp_senac_br/Documents/Área de Trabalho/AutoAtestado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_AD4D361C20488DEA4E38A0581C9F55E45BDEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DFDFD22-E0C0-442A-BB9E-05CBD935326C}"/>
+  <xr:revisionPtr revIDLastSave="483" documentId="11_AD4D361C20488DEA4E38A0581C9F55E45BDEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8532D6E-01FD-49DE-BFA0-28F0810428DD}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2685" windowWidth="14070" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14625" yWindow="945" windowWidth="14070" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>CHAMADO</t>
   </si>
@@ -40,23 +39,14 @@
     <t>FIM</t>
   </si>
   <si>
-    <t>YAN DA SILVA ANDRADE</t>
-  </si>
-  <si>
     <t>STATUS</t>
-  </si>
-  <si>
-    <t>ALUNO</t>
-  </si>
-  <si>
-    <t>ENCAMINHADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +58,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -102,6 +99,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,17 +390,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E371"/>
+  <dimension ref="A1:E362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -403,50 +412,106 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="5">
+        <v>1143134712</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45885</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45888</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
+        <v>1142932857</v>
+      </c>
+      <c r="C3" s="8">
+        <v>45896</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45896</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>1143135434</v>
+      </c>
+      <c r="C4" s="8">
+        <v>45896</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45896</v>
+      </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1496,76 +1561,8 @@
     <row r="362" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E362" s="3"/>
     </row>
-    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E363" s="3"/>
-    </row>
-    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E364" s="3"/>
-    </row>
-    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E365" s="3"/>
-    </row>
-    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E366" s="3"/>
-    </row>
-    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E367" s="3"/>
-    </row>
-    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E368" s="3"/>
-    </row>
-    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E369" s="3"/>
-    </row>
-    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E370" s="3"/>
-    </row>
-    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E371" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF82378-1AC1-4DAD-8EA7-902C78A43CFE}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5269870</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/atestados.xlsx
+++ b/atestados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsenacbr-my.sharepoint.com/personal/lucas_fbarros_sp_senac_br/Documents/Área de Trabalho/AutoAtestado/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsenacbr-my.sharepoint.com/personal/lucas_fbarros_sp_senac_br/Documents/Documentos/autoAtestado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="483" documentId="11_AD4D361C20488DEA4E38A0581C9F55E45BDEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8532D6E-01FD-49DE-BFA0-28F0810428DD}"/>
+  <xr:revisionPtr revIDLastSave="484" documentId="11_AD4D361C20488DEA4E38A0581C9F55E45BDEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99EED0AC-F017-40B0-B933-1D50A16EBE84}"/>
   <bookViews>
-    <workbookView xWindow="14625" yWindow="945" windowWidth="14070" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11100" yWindow="3315" windowWidth="14070" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:E362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="E8" sqref="B2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,39 +423,21 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5">
-        <v>1143134712</v>
-      </c>
-      <c r="C2" s="6">
-        <v>45885</v>
-      </c>
-      <c r="D2" s="6">
-        <v>45888</v>
-      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
-        <v>1142932857</v>
-      </c>
-      <c r="C3" s="8">
-        <v>45896</v>
-      </c>
-      <c r="D3" s="6">
-        <v>45896</v>
-      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
-        <v>1143135434</v>
-      </c>
-      <c r="C4" s="8">
-        <v>45896</v>
-      </c>
-      <c r="D4" s="6">
-        <v>45896</v>
-      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">

--- a/atestados.xlsx
+++ b/atestados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsenacbr-my.sharepoint.com/personal/lucas_fbarros_sp_senac_br/Documents/Documentos/autoAtestado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="484" documentId="11_AD4D361C20488DEA4E38A0581C9F55E45BDEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99EED0AC-F017-40B0-B933-1D50A16EBE84}"/>
+  <xr:revisionPtr revIDLastSave="485" documentId="11_AD4D361C20488DEA4E38A0581C9F55E45BDEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2693343-C9A4-4388-B482-DE4BC2933A0A}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="3315" windowWidth="14070" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:E362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="B2:E8"/>
+      <selection activeCell="B2" sqref="B2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,15 +423,27 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="5">
+        <v>1143120270</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45897</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45897</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="7">
+        <v>1143140289</v>
+      </c>
+      <c r="C3" s="8">
+        <v>45898</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45898</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">

--- a/atestados.xlsx
+++ b/atestados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsenacbr-my.sharepoint.com/personal/lucas_fbarros_sp_senac_br/Documents/Documentos/autoAtestado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="485" documentId="11_AD4D361C20488DEA4E38A0581C9F55E45BDEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2693343-C9A4-4388-B482-DE4BC2933A0A}"/>
+  <xr:revisionPtr revIDLastSave="487" documentId="11_AD4D361C20488DEA4E38A0581C9F55E45BDEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E299E06-DB88-4A2A-863B-4651E9F8B024}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="1515" windowWidth="14070" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -104,9 +104,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -390,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E362"/>
+  <dimension ref="A1:E361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +421,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
-        <v>1143120270</v>
+        <v>1142943885</v>
       </c>
       <c r="C2" s="6">
         <v>45897</v>
@@ -435,36 +432,30 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
-        <v>1143140289</v>
-      </c>
-      <c r="C3" s="8">
-        <v>45898</v>
-      </c>
-      <c r="D3" s="6">
-        <v>45898</v>
-      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="8"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="6"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -503,9 +494,6 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1551,9 +1539,6 @@
     </row>
     <row r="361" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E361" s="3"/>
-    </row>
-    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E362" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/atestados.xlsx
+++ b/atestados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsenacbr-my.sharepoint.com/personal/lucas_fbarros_sp_senac_br/Documents/Documentos/autoAtestado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="487" documentId="11_AD4D361C20488DEA4E38A0581C9F55E45BDEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E299E06-DB88-4A2A-863B-4651E9F8B024}"/>
+  <xr:revisionPtr revIDLastSave="488" documentId="11_AD4D361C20488DEA4E38A0581C9F55E45BDEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45F05BA1-D544-48F7-8C06-156ABA630F65}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="1515" windowWidth="14070" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
   <dimension ref="A1:E361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,15 +420,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5">
-        <v>1142943885</v>
-      </c>
-      <c r="C2" s="6">
-        <v>45897</v>
-      </c>
-      <c r="D2" s="6">
-        <v>45897</v>
-      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/atestados.xlsx
+++ b/atestados.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsenacbr-my.sharepoint.com/personal/lucas_fbarros_sp_senac_br/Documents/Documentos/autoAtestado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="488" documentId="11_AD4D361C20488DEA4E38A0581C9F55E45BDEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45F05BA1-D544-48F7-8C06-156ABA630F65}"/>
+  <xr:revisionPtr revIDLastSave="490" documentId="11_AD4D361C20488DEA4E38A0581C9F55E45BDEDD97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41A2EEAA-676A-4020-B393-7CAC424C7A52}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1515" windowWidth="14070" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="1950" windowWidth="27735" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -390,7 +401,7 @@
   <dimension ref="A1:E361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="B3" sqref="B3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,41 +431,77 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="5">
+        <v>1142942811</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45978</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45978</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="5">
+        <v>1143140284</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45972</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45972</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="5">
+        <v>1142948325</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45974</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45974</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="5">
+        <v>1142932857</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45973</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45973</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="5">
+        <v>1142905695</v>
+      </c>
+      <c r="C6" s="6">
+        <v>45972</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45973</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="5">
+        <v>1143164684</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45978</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45978</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
